--- a/在线客服软件/功能表.xlsx
+++ b/在线客服软件/功能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>访客端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,7 +58,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>框架+开发</t>
+    <t>收到消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史消息记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新来信访客自动展示访客标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与多个访客切换聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客退出自动关闭访客标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有在线访客及相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护客服人员账号，增删改重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天监管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客监管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服、管理员登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,35 +134,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可与多个访客聊天，可手动切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史消息记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术路线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amq+开发</t>
+    <t>AMQ+SSH+Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看其他在线访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移对话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +195,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -221,57 +287,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,129 +698,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>11</v>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
+  <mergeCells count="6">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
